--- a/file/database.xlsx
+++ b/file/database.xlsx
@@ -14,25 +14,232 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="93">
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userinfo_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wx_nickname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wx_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refer to userinfo.id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信昵称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_category_role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_category_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refer to goods_category.id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refer to role.id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信用户表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wx_userinfo</t>
+  </si>
+  <si>
+    <t>userinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>用户表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>userinfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>account</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
+    <t>goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -40,107 +247,142 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>role_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>creator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>total_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_lines</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单行表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_category_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_quantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_total_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品类型权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品类型名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品总价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_userid</t>
   </si>
   <si>
     <t>create_date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>微信用户表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wx_userinfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userinfo_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>openid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wx_nickname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wx_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>refer to userinfo.id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信昵称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goods</t>
+    <t>content</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -148,7 +390,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +400,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -184,8 +435,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -490,159 +742,496 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65:C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.875" customWidth="1"/>
+    <col min="1" max="1" width="28.125" customWidth="1"/>
+    <col min="2" max="2" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" t="s">
-        <v>28</v>
+      <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>65</v>
+      </c>
+      <c r="B70" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>66</v>
+      </c>
+      <c r="B71" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>67</v>
+      </c>
+      <c r="B72" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>68</v>
+      </c>
+      <c r="B73" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>69</v>
+      </c>
+      <c r="B76" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>70</v>
+      </c>
+      <c r="B77" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>57</v>
+      </c>
+      <c r="B78" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>71</v>
+      </c>
+      <c r="B79" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>90</v>
+      </c>
+      <c r="B84" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
